--- a/output/fit_clients/fit_round_37.xlsx
+++ b/output/fit_clients/fit_round_37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>5143684715.31241</v>
+        <v>7193393852.28314</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2418908465163248</v>
+        <v>0.1736939552675032</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4939729555153984</v>
+        <v>0.2621139688110753</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08752727187395569</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.961133412981253</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7696817179417932</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.432500945854612</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>5702731841.223214</v>
+        <v>6896852185.874533</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.254923691044216</v>
+        <v>0.2282567970971212</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5369990910323149</v>
+        <v>0.4062261640421535</v>
       </c>
       <c r="I3" t="n">
-        <v>1.317885948353968</v>
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5145040885465064</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.691504263177998</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5398577680411479</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.105651097644962</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>3758375976.581544</v>
+        <v>12801493598.10383</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3951691207197605</v>
+        <v>0.1023079838272929</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.07356827162989575</v>
       </c>
       <c r="I4" t="n">
-        <v>1.34638077966973</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.837002879505679</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7813285958910793</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.789569038315907</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>4179105637.495605</v>
+        <v>14459516073.40994</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.347237467983609</v>
+        <v>0.07445403321482778</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8417602710013204</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1.315511379077655</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1108747270604266</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.526039575161319</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.3560255137530378</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.594470699899436</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>9536149488.955975</v>
+        <v>10310100483.56159</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1282755824472633</v>
+        <v>0.1305871327002724</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1188878589223938</v>
+        <v>0.1482595832752385</v>
       </c>
       <c r="I6" t="n">
-        <v>1.108923852038384</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.913111514813737</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7882242448719199</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.85137338262466</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>8561632759.083443</v>
+        <v>7470694459.382133</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1373693713681206</v>
+        <v>0.2145806777021613</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1489097465950113</v>
+        <v>0.3701045926180613</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05715689179650238</v>
+        <v>16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.988895961549133</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3871890933523291</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.564189267983821</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8971747778034965</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15.37930628808611</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>6101596822.02102</v>
+        <v>12488361775.61317</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2507087578253511</v>
+        <v>0.09648338362145496</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5230840713693758</v>
+        <v>0.05818425030952813</v>
       </c>
       <c r="I8" t="n">
-        <v>1.386748457367059</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.817336503353491</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7608012298249847</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.398688093146202</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>7659871522.587861</v>
+        <v>8637603208.295597</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1518314186563643</v>
+        <v>0.1543564201605743</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1966541975584504</v>
+        <v>0.2110393813964435</v>
       </c>
       <c r="I9" t="n">
-        <v>1.054308758683175</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9.122551724667636</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7857777038993512</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.593002353319388</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>10995739870.82258</v>
+        <v>14171684582.35853</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1317348979711392</v>
+        <v>0.09648264269881478</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1303083111657647</v>
+        <v>0.05818229337355132</v>
       </c>
       <c r="I10" t="n">
-        <v>1.313136809801341</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.796290666097461</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7921022469395858</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.045754272694255</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>8867547821.905766</v>
+        <v>6517013295.729576</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1214055240097515</v>
+        <v>0.2327180782328317</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09620731019729158</v>
+        <v>0.4180093666109986</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06326736769471912</v>
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.987864989428707</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4519166412311529</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.700312753508061</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8834205403957721</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.96809805440738</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>5890903443.275574</v>
+        <v>5171844299.304826</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2152105822490042</v>
+        <v>0.2461449854882742</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4058917493338786</v>
+        <v>0.45347271519882</v>
       </c>
       <c r="I12" t="n">
-        <v>1.149291529735713</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.868764501981417</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.774287945382766</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.616994405673903</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>9289099974.66711</v>
+        <v>14749198349.49015</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1333790650739982</v>
+        <v>0.09714469193842859</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1357363016883765</v>
+        <v>0.05993090774319403</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05762855120277226</v>
+        <v>16</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9901688601330546</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2956633801127772</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.472663554744269</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8483120793299314</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14.49357803185436</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>6191900200.433481</v>
+        <v>9096488262.723724</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2237854721726609</v>
+        <v>0.1770930499192056</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.4342005636612747</v>
+        <v>0.2710917085260391</v>
       </c>
       <c r="I14" t="n">
-        <v>1.256147147169818</v>
+        <v>17</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9891943677467733</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3859574887335816</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.497957880967401</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8889130457481685</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15.28030303399597</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>4340993023.893026</v>
+        <v>10492410952.21541</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3385118985245832</v>
+        <v>0.09361730630581133</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8129540090066445</v>
+        <v>0.05061432396754657</v>
       </c>
       <c r="I15" t="n">
-        <v>1.332133364011849</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.263330454419088</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6938370672247097</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.613410890075106</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>7914761729.399153</v>
+        <v>13090511433.65445</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1975771202551051</v>
+        <v>0.1018500703167557</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3476773109004094</v>
+        <v>0.07235882360599066</v>
       </c>
       <c r="I16" t="n">
-        <v>1.417617857959133</v>
+        <v>12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.98870854159458</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4088289331078743</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.922612206806582</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8640570565108942</v>
+      </c>
+      <c r="N16" t="n">
+        <v>14.3585289234113</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>11372566767.4242</v>
+        <v>9735152713.382627</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1020341136465202</v>
+        <v>0.1474476838998902</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03225527534730258</v>
+        <v>0.1927919236868766</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06699836742497664</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>9.118037416927368</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8044092925009998</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.970148433092628</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>8409017200.874211</v>
+        <v>12314504450.3305</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1451579549478269</v>
+        <v>0.0891245290808713</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1746226791684115</v>
+        <v>0.03874793345599443</v>
       </c>
       <c r="I18" t="n">
-        <v>1.106549282762071</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.868798688275774</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7383259317209639</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.897719946143505</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>11307849324.4928</v>
+        <v>5686279901.746578</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1162850461008402</v>
+        <v>0.2303254540104012</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0793027598553686</v>
+        <v>0.4116899316714798</v>
       </c>
       <c r="I19" t="n">
-        <v>1.192033776709355</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9.20923833344564</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7813285958910793</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.417333584375946</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>10964906967.69261</v>
+        <v>5712205818.569668</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1397497629952493</v>
+        <v>0.2590864890037488</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1567682806635327</v>
+        <v>0.4876540081569402</v>
       </c>
       <c r="I20" t="n">
-        <v>1.389123026643372</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.453893064083227</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8122245820144089</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.790598576204951</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>5694811709.297276</v>
+        <v>9127687614.022028</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2483788178089811</v>
+        <v>0.1081884121979568</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5153920963230929</v>
+        <v>0.08909974713554804</v>
       </c>
       <c r="I21" t="n">
-        <v>1.282267409209267</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.416849999244567</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.579700791773668</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.177165836228792</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>9471640148.314266</v>
+        <v>9145693222.871246</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1515498580523535</v>
+        <v>0.1729897910902487</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1957246641263233</v>
+        <v>0.2602541198372239</v>
       </c>
       <c r="I22" t="n">
-        <v>1.301263963419774</v>
+        <v>19</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9905287128239402</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3677102214242551</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.365462592221954</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8589901892892914</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.81434119356387</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>7273114842.720872</v>
+        <v>4180561429.433607</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1721502337135655</v>
+        <v>0.3370915231811165</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2637339581067609</v>
+        <v>0.6936820729978297</v>
       </c>
       <c r="I23" t="n">
-        <v>1.135044114077832</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9.179906048694061</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7997280284886108</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.814654521078154</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>7080840127.001848</v>
+        <v>4792439313.258995</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.194211382453889</v>
+        <v>0.3109967205795379</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3365657925791697</v>
+        <v>0.6247600894475922</v>
       </c>
       <c r="I24" t="n">
-        <v>1.246648870064565</v>
+        <v>15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9906207723743438</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3217266403172039</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.570122752594112</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.877158355930862</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.97304436602313</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>9293777851.499128</v>
+        <v>12233220467.07147</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1423309197977685</v>
+        <v>0.1055616771949782</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1652896132197473</v>
+        <v>0.0821619752952978</v>
       </c>
       <c r="I25" t="n">
-        <v>0.07493003763886005</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9.040832324129861</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7778268584388666</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.515704844647471</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>8692879229.459904</v>
+        <v>8343888619.138716</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1259542426736357</v>
+        <v>0.1855321374315991</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1112242763892666</v>
+        <v>0.2933811528873855</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9925699574990248</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.576638409099613</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5612291379029102</v>
+      </c>
+      <c r="N26" t="n">
+        <v>8.647944348958593</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>4439827484.688659</v>
+        <v>12556616604.81163</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3297963749829526</v>
+        <v>0.1224519294003774</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7841809122202476</v>
+        <v>0.1267727624483479</v>
       </c>
       <c r="I27" t="n">
-        <v>1.327384225459222</v>
+        <v>20</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3283305654000112</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.275498716401982</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.2252004232966364</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.228509749530745</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>4024571568.407024</v>
+        <v>11286257234.66822</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2863737370326319</v>
+        <v>0.1341461025138957</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6408270725458631</v>
+        <v>0.1576595876629131</v>
       </c>
       <c r="I28" t="n">
-        <v>1.044810481577921</v>
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9886373070372784</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3648722567010647</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.613268368977972</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8830156842113724</v>
+      </c>
+      <c r="N28" t="n">
+        <v>15.04704531524948</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>6169420405.332243</v>
+        <v>12460722293.90017</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2212042785770419</v>
+        <v>0.1299108496136242</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4256791096377247</v>
+        <v>0.1464733742555755</v>
       </c>
       <c r="I29" t="n">
-        <v>1.237150592959311</v>
+        <v>18</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.9896767185009027</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3690734187994759</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.421568866967777</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8805551110184856</v>
+      </c>
+      <c r="N29" t="n">
+        <v>15.18953335340194</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>7857429596.234427</v>
+        <v>5144400114.414848</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1960184690344692</v>
+        <v>0.2428755544303379</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3425316392475965</v>
+        <v>0.4448374449101652</v>
       </c>
       <c r="I30" t="n">
-        <v>0.06601025763049236</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.796917547658095</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7696817179417932</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.596716811177769</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>6716373134.326885</v>
+        <v>7130508540.141051</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2191803746692125</v>
+        <v>0.1377561283981814</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4189974705200998</v>
+        <v>0.1671944421092778</v>
       </c>
       <c r="I31" t="n">
-        <v>1.334507933288163</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.62000104734132</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.6530650227275459</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.441299407209597</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>8083569705.478312</v>
+        <v>10958375197.2348</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1451693698150109</v>
+        <v>0.09489525694123012</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1746603637752767</v>
+        <v>0.05398966633043613</v>
       </c>
       <c r="I32" t="n">
-        <v>1.063807035788428</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.225702774736867</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5705694058252552</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8.185685341768236</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>4004105607.887303</v>
+        <v>12187689233.2543</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2740997659597419</v>
+        <v>0.1115439837677091</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6003062528903611</v>
+        <v>0.09796253303445804</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9949445267753383</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.906093631014322</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7906531943405634</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.906970255796946</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>5599528744.2504</v>
+        <v>14183735414.50535</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2512019304203609</v>
+        <v>0.0783024589463362</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5247122125522704</v>
+        <v>0.01016451969425082</v>
       </c>
       <c r="I34" t="n">
-        <v>1.275143701380326</v>
+        <v>12</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.9864822910385361</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2540200027764156</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.767803276475123</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7900643270468354</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13.03348326446158</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>5202040364.731964</v>
+        <v>7440461638.20657</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2386738227595382</v>
+        <v>0.2151005364750147</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4833523960646645</v>
+        <v>0.3714776513967808</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06189192101939932</v>
+        <v>16</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4105605781073672</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.587560752738859</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.551359866757577</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8.439636582412682</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>4788441087.005216</v>
+        <v>13642966492.12856</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3227438892782846</v>
+        <v>0.08889397849798453</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7608981050778179</v>
+        <v>0.03813899980266001</v>
       </c>
       <c r="I36" t="n">
-        <v>1.400995873024939</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.85274366860526</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7623859722062359</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.394975775519459</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>4356179966.538774</v>
+        <v>5904060813.441149</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2759987005209277</v>
+        <v>0.1677031201551782</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6065753229765178</v>
+        <v>0.2462908853653753</v>
       </c>
       <c r="I37" t="n">
-        <v>1.089927297827876</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.816988007107462</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6079900564119654</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8.342813121131845</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>11611599354.84913</v>
+        <v>3493957893.877077</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09226381975990247</v>
+        <v>0.3606015379315061</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.7557770761535222</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9711988340122037</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.893263947796495</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.7717368522443265</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.541473097090035</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>5822798190.306749</v>
+        <v>11903437938.25042</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2001835735850213</v>
+        <v>0.1260905024066186</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.356282156446713</v>
+        <v>0.1363830159808779</v>
       </c>
       <c r="I39" t="n">
-        <v>0.08271405755485986</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.58760627921458</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8158424181300989</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.729242083387401</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>9563313662.333767</v>
+        <v>8790148955.10014</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1457147103193451</v>
+        <v>0.1582335062926308</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1764607301029905</v>
+        <v>0.2212795993699753</v>
       </c>
       <c r="I40" t="n">
-        <v>1.263270854998759</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>9.108958575535157</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7964127020171491</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.819295464807825</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>6343417039.576187</v>
+        <v>7468479109.436191</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2019229859882549</v>
+        <v>0.157125259748981</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.3620245861688793</v>
+        <v>0.2183524819965556</v>
       </c>
       <c r="I41" t="n">
-        <v>1.16116437611728</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.958588816349584</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7543839268618203</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.129089720886823</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>3862431444.132008</v>
+        <v>6721324951.532968</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3153496360046646</v>
+        <v>0.1683561631314843</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7364869995270443</v>
+        <v>0.2480157122574494</v>
       </c>
       <c r="I42" t="n">
-        <v>0.07586695014360309</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.90997089282671</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7456242280097807</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.002513667368904</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>10467191487.84297</v>
+        <v>3841172016.473273</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1218706022032351</v>
+        <v>0.2577675292212182</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0977427015952298</v>
+        <v>0.4841703518203523</v>
       </c>
       <c r="I43" t="n">
-        <v>1.156415237564653</v>
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.9881773081211126</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1475402666617323</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.438855161644082</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8159310647993027</v>
+      </c>
+      <c r="N43" t="n">
+        <v>12.87976613434197</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>5721319594.488878</v>
+        <v>14201392706.70321</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2632520741282858</v>
+        <v>0.1086386907160008</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5644940970876017</v>
+        <v>0.09028902950290252</v>
       </c>
       <c r="I44" t="n">
-        <v>1.365377333880238</v>
+        <v>22</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3380179629774187</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.194569949928311</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.3950544786722753</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-10.09565952337382</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>6817224123.093336</v>
+        <v>8709152846.089008</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.229770239575055</v>
+        <v>0.1130868475275734</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4539584463507798</v>
+        <v>0.1020375679102228</v>
       </c>
       <c r="I45" t="n">
-        <v>1.419992427235447</v>
+        <v>8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9865437427135086</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1425392721022621</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.221282444354714</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8002171179748646</v>
+      </c>
+      <c r="N45" t="n">
+        <v>12.78305991514258</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>5077261884.618407</v>
+        <v>3434183843.219061</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2115214705102246</v>
+        <v>0.4530676664478008</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3937126566369552</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9735734032885172</v>
+        <v>15</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3064313350750244</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.554827447351932</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.5644385411335807</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.733943375319681</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>9955694498.832209</v>
+        <v>4726222198.428382</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1249747318126269</v>
+        <v>0.2322202308568906</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1079905566164369</v>
+        <v>0.4166944446635504</v>
       </c>
       <c r="I47" t="n">
-        <v>1.127920406248892</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.956305120097626</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7383259317209639</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.810213514321653</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>8231087382.250054</v>
+        <v>7532654631.63967</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1861653362233069</v>
+        <v>0.2027312341635379</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.310002882636407</v>
+        <v>0.3388076648306456</v>
       </c>
       <c r="I48" t="n">
-        <v>1.389123026643372</v>
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2442759895526674</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.492672101829575</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5524545446053862</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8.556418790278149</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>8461751933.455392</v>
+        <v>12466739050.2156</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1362048437561982</v>
+        <v>0.09055752955545149</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1450652195820072</v>
+        <v>0.04253279577683541</v>
       </c>
       <c r="I49" t="n">
-        <v>1.044810481577921</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>9.047212107289102</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7450687210622892</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.854162313956682</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>4232058738.186003</v>
+        <v>12094388567.39546</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3274192055741498</v>
+        <v>0.1128376339486081</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7763330158603295</v>
+        <v>0.1013793412720606</v>
       </c>
       <c r="I50" t="n">
-        <v>1.256147147169818</v>
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9887029236616945</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2874358686416459</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.535831980918554</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8383013973903337</v>
+      </c>
+      <c r="N50" t="n">
+        <v>14.23019596688812</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>8317113480.445273</v>
+        <v>11809466337.48017</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1502262813820725</v>
+        <v>0.1140073921652991</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1913550586222702</v>
+        <v>0.1044689241978059</v>
       </c>
       <c r="I51" t="n">
-        <v>1.132669544801519</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.815012929456261</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7882242448719199</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.949471967982136</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>4013844135.763589</v>
+        <v>6390652358.785928</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.349135044261853</v>
+        <v>0.1754279308369361</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8480248569040129</v>
+        <v>0.2666937710612651</v>
       </c>
       <c r="I52" t="n">
-        <v>1.270394562827699</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.690609632806432</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7267709955799755</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.844810278793077</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>5812558205.977328</v>
+        <v>7224264592.279055</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2050426692973832</v>
+        <v>0.1914434199265243</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3723237895807789</v>
+        <v>0.3089941207682536</v>
       </c>
       <c r="I53" t="n">
-        <v>1.080429020722623</v>
+        <v>16</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.9895656150388461</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2922869538300083</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2.4692871284615</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8322438310935873</v>
+      </c>
+      <c r="N53" t="n">
+        <v>14.17558949341025</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>10864004435.91719</v>
+        <v>4226813574.340378</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1333322973627549</v>
+        <v>0.3767824371692414</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1355819045513997</v>
+        <v>0.7985143096217597</v>
       </c>
       <c r="I54" t="n">
-        <v>1.313136809801341</v>
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3030832669404825</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.55147937921739</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.5788806282488659</v>
+      </c>
+      <c r="N54" t="n">
+        <v>9.026133185759928</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>7775005874.166741</v>
+        <v>10364430367.97901</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1910216087340475</v>
+        <v>0.1276280415841064</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3260351953603899</v>
+        <v>0.1404439874899036</v>
       </c>
       <c r="I55" t="n">
-        <v>1.34638077966973</v>
+        <v>12</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.9870860630865542</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.2941787510289365</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2.807962024727644</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8602807135967017</v>
+      </c>
+      <c r="N55" t="n">
+        <v>14.39765224720639</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>8708948262.662785</v>
+        <v>10124928486.90054</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1762511951736731</v>
+        <v>0.1236619519456265</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2772727157551493</v>
+        <v>0.1299686921218697</v>
       </c>
       <c r="I56" t="n">
-        <v>1.391497595919686</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.978613032658695</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.770196701801945</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.425321003380205</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>6805054371.08393</v>
+        <v>6003303916.495285</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1605109335557031</v>
+        <v>0.1640581009556779</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2253084167874797</v>
+        <v>0.2366636060506408</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9901953882227114</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.401233054000446</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6944928786668078</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.488624519335708</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>6901665425.464415</v>
+        <v>5214844485.347907</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1650956080536644</v>
+        <v>0.3104182731715734</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2404440861977976</v>
+        <v>0.6232322854881176</v>
       </c>
       <c r="I58" t="n">
-        <v>1.032937635196354</v>
+        <v>15</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4467841617176525</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.69518027399456</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5887035402509144</v>
+      </c>
+      <c r="N58" t="n">
+        <v>9.078890531023728</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>8564593607.325599</v>
+        <v>7968991510.916242</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1590364776718609</v>
+        <v>0.1982047750755348</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2204407044061845</v>
+        <v>0.3268523132777928</v>
       </c>
       <c r="I59" t="n">
-        <v>1.234776023682997</v>
+        <v>16</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4362656537458012</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.613265828377293</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.5422039920508087</v>
+      </c>
+      <c r="N59" t="n">
+        <v>8.230814012638882</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>6207482416.266722</v>
+        <v>12363074727.49593</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2472761801108976</v>
+        <v>0.08220635581370869</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5117518903095655</v>
+        <v>0.02047555058354346</v>
       </c>
       <c r="I60" t="n">
-        <v>1.391497595919686</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.749394450320802</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7202076393841297</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.654758337361793</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>11150689906.50818</v>
+        <v>12152953358.60457</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09490296733858182</v>
+        <v>0.08255000578025691</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.008712781091371845</v>
+        <v>0.02138320402331476</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9593259876306364</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.787742030728069</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7171838199489369</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.555934368250668</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>9421614267.240305</v>
+        <v>3637525053.865752</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1598610606716303</v>
+        <v>0.4190995133847573</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2231629512508467</v>
+        <v>0.9102828052624777</v>
       </c>
       <c r="I62" t="n">
-        <v>1.365377333880238</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9.420729473402819</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8198682410640589</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.976635347878357</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>5478719494.449857</v>
+        <v>7805935275.877117</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2682155550194958</v>
+        <v>0.1999960779619173</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.580880343467185</v>
+        <v>0.3315835292963142</v>
       </c>
       <c r="I63" t="n">
-        <v>1.332133364011849</v>
+        <v>16</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9907084471216195</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5034931299236527</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.680493304555144</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8863977803893204</v>
+      </c>
+      <c r="N63" t="n">
+        <v>15.04746230323126</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>7289042118.249522</v>
+        <v>5463065375.018431</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1875859074235073</v>
+        <v>0.2282289437174809</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3146927021796729</v>
+        <v>0.4061525972785837</v>
       </c>
       <c r="I64" t="n">
-        <v>1.239525162235624</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>9.092761644062559</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7691659288299662</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.290556932536763</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>11563530228.72121</v>
+        <v>8325017586.247451</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1044264827535751</v>
+        <v>0.120507417504713</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04015335141092317</v>
+        <v>0.1216368884993297</v>
       </c>
       <c r="I65" t="n">
-        <v>1.094676436380503</v>
+        <v>6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.06924835999024552</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3.624274758521596</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6124198383050117</v>
+      </c>
+      <c r="N65" t="n">
+        <v>8.624122007578638</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>10467404487.73495</v>
+        <v>4872158423.62511</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1176139989089503</v>
+        <v>0.2499952267754339</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.08369011393566637</v>
+        <v>0.4636420301658554</v>
       </c>
       <c r="I66" t="n">
-        <v>1.116047559867325</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>9.268524634678322</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.763438211999964</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.000239605320958</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>3924430188.499275</v>
+        <v>11197334985.86912</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3063629500974169</v>
+        <v>0.09006296152367224</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.7068186976558973</v>
+        <v>0.04122653528231454</v>
       </c>
       <c r="I67" t="n">
-        <v>1.089927297827876</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.477564455686188</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.5875642390428143</v>
+      </c>
+      <c r="N67" t="n">
+        <v>8.2737203251701</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>4802499606.835817</v>
+        <v>14034849360.23701</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2432583103884341</v>
+        <v>0.09574360475909714</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.4984874485525821</v>
+        <v>0.05623033529584819</v>
       </c>
       <c r="I68" t="n">
-        <v>1.059057897235802</v>
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.9873535001399529</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3206144873727991</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.735779335473692</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.8551126435236985</v>
+      </c>
+      <c r="N68" t="n">
+        <v>14.36647353500028</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>4078835673.024185</v>
+        <v>9120659056.428093</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3493516959812936</v>
+        <v>0.1349807390434501</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8487401026219121</v>
+        <v>0.1598640421682287</v>
       </c>
       <c r="I69" t="n">
-        <v>1.29176568631452</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.789142340661142</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7660541109406553</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.531939878151965</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>4434796453.579819</v>
+        <v>11749290203.64902</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2994569748354512</v>
+        <v>0.08984493120036763</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.6840195744973332</v>
+        <v>0.04065067032615103</v>
       </c>
       <c r="I70" t="n">
-        <v>0.07309673745955836</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.773895916868589</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7291057819130071</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.808219721391552</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>5210651950.555032</v>
+        <v>7415407769.24633</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2096255210221153</v>
+        <v>0.2024043069114385</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3874534413571257</v>
+        <v>0.3379441796747951</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9901953882227114</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.586107682896666</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8158424181300989</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.730740679705315</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>3914625683.22293</v>
+        <v>9832185131.769039</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3124832944418042</v>
+        <v>0.1417299879247975</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.7270241688873116</v>
+        <v>0.1776902594222557</v>
       </c>
       <c r="I72" t="n">
-        <v>0.06258581249534179</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>9.026751308988988</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.796888293099227</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.911014552995553</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>6310053141.518055</v>
+        <v>10457143344.05174</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2112929130861877</v>
+        <v>0.143028706864841</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3929581058802907</v>
+        <v>0.1811204553424441</v>
       </c>
       <c r="I73" t="n">
-        <v>1.208655761643549</v>
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4909339833661079</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.906098831467001</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.599043087155164</v>
+      </c>
+      <c r="N73" t="n">
+        <v>9.074762911636277</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>7217891760.799809</v>
+        <v>6204719470.347031</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1643947719532601</v>
+        <v>0.1637984319608823</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2381303726438141</v>
+        <v>0.2359777644115581</v>
       </c>
       <c r="I74" t="n">
-        <v>1.075679882169996</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.196802585104035</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6831567904692328</v>
+      </c>
+      <c r="N74" t="n">
+        <v>8.466333224280621</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>5230267911.788513</v>
+        <v>9459914215.585634</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2844622006162655</v>
+        <v>0.1096498780391726</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6345163991759714</v>
+        <v>0.09295979260917871</v>
       </c>
       <c r="I75" t="n">
-        <v>1.348755348946043</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.880694378437648</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7249850155600485</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.619005932763322</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>11227519665.18853</v>
+        <v>9495771721.408569</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1035855820948563</v>
+        <v>0.1663363669999539</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0373772340697801</v>
+        <v>0.2426809964568498</v>
       </c>
       <c r="I76" t="n">
-        <v>0.06178618491695009</v>
+        <v>17</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.9901626850476624</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2700098470294409</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.38201023926326</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8805073950587518</v>
+      </c>
+      <c r="N76" t="n">
+        <v>15.22813766191178</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>4660432776.278159</v>
+        <v>4502939401.926854</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2922653035428536</v>
+        <v>0.2670033732822439</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6602772653670261</v>
+        <v>0.5085642015139334</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1039218283963926</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.845439879026777</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.760271266893447</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.359985458842164</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>9594579701.738766</v>
+        <v>12003456976.99327</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.130497474503557</v>
+        <v>0.09994459282016827</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1262231285570052</v>
+        <v>0.06732604789657781</v>
       </c>
       <c r="I78" t="n">
-        <v>0.05631271977553025</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.771287951422861</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7597404405731211</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.423520860039559</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>6168654983.360492</v>
+        <v>3672833963.002831</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1804673389908964</v>
+        <v>0.380124689562212</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2911917320413053</v>
+        <v>0.8073419167114232</v>
       </c>
       <c r="I79" t="n">
-        <v>1.009191942433219</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>9.073174024462322</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7973632228142309</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.874090431822296</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>6352825162.374018</v>
+        <v>9061442885.747398</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1904913403201183</v>
+        <v>0.1624572596838235</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.3242845874567025</v>
+        <v>0.232435440101663</v>
       </c>
       <c r="I80" t="n">
-        <v>1.097051005656817</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>9.229956585142912</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.8108581494141481</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.98720640314005</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>10770059510.39526</v>
+        <v>7388926181.01715</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1031211906422642</v>
+        <v>0.1371923206655253</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03584410985201147</v>
+        <v>0.1657053046795403</v>
       </c>
       <c r="I81" t="n">
-        <v>1.006817373156905</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.497894553833447</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.5894921976665314</v>
+      </c>
+      <c r="N81" t="n">
+        <v>8.291949399497181</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>6643110413.214393</v>
+        <v>9192639232.988203</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1727041624534524</v>
+        <v>0.1413323646312257</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2655626773075529</v>
+        <v>0.1766400508225904</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0656379230328813</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.91969685139347</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.5827674457438249</v>
+      </c>
+      <c r="N82" t="n">
+        <v>8.735652063483027</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>9646860007.186131</v>
+        <v>11969269888.17577</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1186576180381296</v>
+        <v>0.1243027798604311</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.08713547829829796</v>
+        <v>0.1316612564105155</v>
       </c>
       <c r="I83" t="n">
-        <v>1.037686773748981</v>
+        <v>17</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.3853479951347295</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.497348387368549</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.4509230913683775</v>
+      </c>
+      <c r="N83" t="n">
+        <v>6.521113439999002</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>9028552305.753717</v>
+        <v>6204906737.381981</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1526046583483773</v>
+        <v>0.2553996404897846</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1992069415664382</v>
+        <v>0.4779162486302104</v>
       </c>
       <c r="I84" t="n">
-        <v>1.249023439340878</v>
+        <v>26</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.4107180052671182</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.118497447042637</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.5525409751409155</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-13.16931694986095</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>8597062567.29472</v>
+        <v>14148344312.66881</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1471625174408979</v>
+        <v>0.08886603069690448</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1812404652775318</v>
+        <v>0.03806518365176918</v>
       </c>
       <c r="I85" t="n">
-        <v>1.146916960459399</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.798196690037816</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7712242659342168</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.62628862864652</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>4146284583.879617</v>
+        <v>4574150144.835896</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3247163654020643</v>
+        <v>0.3372912259432077</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.7674099624719583</v>
+        <v>0.6942095309247562</v>
       </c>
       <c r="I86" t="n">
-        <v>1.220528608025117</v>
+        <v>16</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9892459043091287</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4313597939983698</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.608359968629861</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8805725216358571</v>
+      </c>
+      <c r="N86" t="n">
+        <v>15.00309046408728</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>8431053185.729078</v>
+        <v>10334839507.61756</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1289336961887517</v>
+        <v>0.1505507326798032</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1210605305111806</v>
+        <v>0.2009877426102896</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9854462496700844</v>
+        <v>16</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2967861507735109</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.473786325405003</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.5314526516624488</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8.155266707843973</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>4644992413.367889</v>
+        <v>7915965189.767406</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2531987149462866</v>
+        <v>0.1462576391185493</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5313043207775084</v>
+        <v>0.1896487595826706</v>
       </c>
       <c r="I88" t="n">
-        <v>1.066181605064742</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.956018327033126</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7511269368186916</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.066520409340706</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>8518298315.015118</v>
+        <v>6238850157.283734</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.156518292820276</v>
+        <v>0.2426741117082971</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2121272650454168</v>
+        <v>0.4443053913749539</v>
       </c>
       <c r="I89" t="n">
-        <v>0.07523635073554864</v>
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3465704595441322</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2.673881540806441</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.5778540761235939</v>
+      </c>
+      <c r="N89" t="n">
+        <v>8.883199981665436</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>6751906532.843641</v>
+        <v>6859678969.85808</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1769043801465284</v>
+        <v>0.164578706228195</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2794291156952805</v>
+        <v>0.238038636495455</v>
       </c>
       <c r="I90" t="n">
-        <v>1.082803589998936</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>9.223661543894773</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7450687210622892</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.677712877351011</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>7792401988.868456</v>
+        <v>15809148321.94225</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.161686549513208</v>
+        <v>0.07522246206960118</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2291895504413957</v>
+        <v>0.002029585802845493</v>
       </c>
       <c r="I91" t="n">
-        <v>1.142167821906773</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.745788425382333</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7576084325990921</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.406380226599508</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>4406685572.106375</v>
+        <v>11523591821.14312</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.326332588624566</v>
+        <v>0.08614925150147507</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.772745700134456</v>
+        <v>0.03088958574149083</v>
       </c>
       <c r="I92" t="n">
-        <v>1.303638532696088</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.683890669820996</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.6088820403260483</v>
+      </c>
+      <c r="N92" t="n">
+        <v>8.493750136699969</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>6910629728.138426</v>
+        <v>6749255582.973471</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1823171895420589</v>
+        <v>0.1536878293091716</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2972987580500961</v>
+        <v>0.2092734892237458</v>
       </c>
       <c r="I93" t="n">
-        <v>0.05827449974100454</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>9.129370590633131</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7249850155600485</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.370329720567838</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>7051254095.290891</v>
+        <v>6285260758.210968</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1686512844281413</v>
+        <v>0.2133766173898149</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2521826604756644</v>
+        <v>0.3669244104834009</v>
       </c>
       <c r="I94" t="n">
-        <v>1.078054451446309</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>9.189174110568647</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7872477567760418</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.555781024952188</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>9157488982.866606</v>
+        <v>6397943344.951964</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.166760164588477</v>
+        <v>0.2063432713954287</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2459393896128844</v>
+        <v>0.3483478316784363</v>
       </c>
       <c r="I95" t="n">
-        <v>1.384373888090745</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>9.175756632411773</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7833132587715532</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.490508543019292</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>6399770449.98549</v>
+        <v>6390754342.839413</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2435301488045612</v>
+        <v>0.2369059016791007</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.4993848855246842</v>
+        <v>0.4290703086338974</v>
       </c>
       <c r="I96" t="n">
-        <v>1.412868719406507</v>
+        <v>15</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9874380370322289</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2808866647201608</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.529282776997069</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8824967587903652</v>
+      </c>
+      <c r="N96" t="n">
+        <v>15.12065239881024</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>9362722692.062311</v>
+        <v>7313744030.997882</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1675810190694002</v>
+        <v>0.2077248251457763</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.2486493272677291</v>
+        <v>0.3519968121405251</v>
       </c>
       <c r="I97" t="n">
-        <v>1.42236699651176</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.501342858216708</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.471355568180445</v>
+      </c>
+      <c r="N97" t="n">
+        <v>6.925768505392192</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>6430280354.310815</v>
+        <v>8958239736.016808</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1661997706341907</v>
+        <v>0.1236852331094973</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2440893264000238</v>
+        <v>0.1300301826806536</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0492838265440563</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.835046268166433</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7405894656690134</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5.976743045213835</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>8652092650.37908</v>
+        <v>8589419911.586288</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1613638372144374</v>
+        <v>0.1271664025327966</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.228124160374771</v>
+        <v>0.1392246995118985</v>
       </c>
       <c r="I99" t="n">
-        <v>0.066530979712402</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.902152411130141</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.73718806673065</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.841608923482859</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>8514982674.010063</v>
+        <v>9422989475.452978</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1368914764275212</v>
+        <v>0.1395452879816348</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1473320424773052</v>
+        <v>0.1719199972039949</v>
       </c>
       <c r="I100" t="n">
-        <v>1.056683327959488</v>
+        <v>15</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2347860270563083</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2.483182139333216</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.435911584034568</v>
+      </c>
+      <c r="N100" t="n">
+        <v>6.235049541358144</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>6685681957.628882</v>
+        <v>12053613937.54614</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2542723570719941</v>
+        <v>0.1312561998581883</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.53484880191503</v>
+        <v>0.1500267334758343</v>
       </c>
       <c r="I101" t="n">
-        <v>1.541095460327433</v>
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.3839825516771457</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.632378663954054</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.574840292798907</v>
+      </c>
+      <c r="N101" t="n">
+        <v>8.864427192024086</v>
       </c>
     </row>
   </sheetData>
